--- a/output/raw_data/sp500_matched_market_data.xlsx
+++ b/output/raw_data/sp500_matched_market_data.xlsx
@@ -97,67 +97,67 @@
     <t>BF.B</t>
   </si>
   <si>
-    <t>502.98</t>
-  </si>
-  <si>
-    <t>29.94</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>499.86</t>
-  </si>
-  <si>
-    <t>28.97</t>
-  </si>
-  <si>
-    <t>500.85</t>
-  </si>
-  <si>
-    <t>29.11</t>
-  </si>
-  <si>
-    <t>506.72</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>28.95</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>3.64%</t>
-  </si>
-  <si>
-    <t>4663603</t>
-  </si>
-  <si>
-    <t>5362704</t>
-  </si>
-  <si>
-    <t>1085096255753</t>
-  </si>
-  <si>
-    <t>14154215581</t>
-  </si>
-  <si>
-    <t>17.23714893</t>
-  </si>
-  <si>
-    <t>16.72625764</t>
+    <t>489.13</t>
+  </si>
+  <si>
+    <t>26.70</t>
+  </si>
+  <si>
+    <t>-7.61</t>
+  </si>
+  <si>
+    <t>-0.68</t>
+  </si>
+  <si>
+    <t>-1.53</t>
+  </si>
+  <si>
+    <t>-2.48</t>
+  </si>
+  <si>
+    <t>496.74</t>
+  </si>
+  <si>
+    <t>27.38</t>
+  </si>
+  <si>
+    <t>497.25</t>
+  </si>
+  <si>
+    <t>27.84</t>
+  </si>
+  <si>
+    <t>497.99</t>
+  </si>
+  <si>
+    <t>489.06</t>
+  </si>
+  <si>
+    <t>26.69</t>
+  </si>
+  <si>
+    <t>1.80%</t>
+  </si>
+  <si>
+    <t>4.20%</t>
+  </si>
+  <si>
+    <t>4763696</t>
+  </si>
+  <si>
+    <t>2622115</t>
+  </si>
+  <si>
+    <t>1055217156312</t>
+  </si>
+  <si>
+    <t>12622497371</t>
+  </si>
+  <si>
+    <t>16.76250856</t>
+  </si>
+  <si>
+    <t>14.91620186</t>
   </si>
   <si>
     <t>NYSE</t>
@@ -621,7 +621,7 @@
         <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
         <v>40</v>
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="S2">
-        <v>1085096255753</v>
+        <v>1055217156312</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -677,7 +677,7 @@
         <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="S3">
-        <v>14154215581</v>
+        <v>12622497371</v>
       </c>
     </row>
   </sheetData>
